--- a/Progress Reports/ConnorDougherty_ProgressReport.xlsx
+++ b/Progress Reports/ConnorDougherty_ProgressReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Explaining normalization of relations</t>
+  </si>
+  <si>
+    <t>Learning JSP basics</t>
+  </si>
+  <si>
+    <t>Setting up development environment and server</t>
+  </si>
+  <si>
+    <t>Updated user login and create user page</t>
+  </si>
+  <si>
+    <t>Added CSS and changed some html design</t>
+  </si>
+  <si>
+    <t>Added servlets and updated xml</t>
+  </si>
+  <si>
+    <t>Prepared for presentation</t>
   </si>
 </sst>
 </file>
@@ -97,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -257,11 +275,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -276,12 +305,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -617,7 +675,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,34 +862,70 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="13">
+        <v>42812</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="13">
+        <v>42825</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="13">
+        <v>42848</v>
+      </c>
+      <c r="B19" s="14">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="13">
+        <v>42850</v>
+      </c>
+      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="13">
+        <v>42851</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="13">
+        <v>42852</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
